--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462467.4649403786</v>
+        <v>465797.9705673484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346305</v>
+        <v>3854815.05046239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7636042.636928647</v>
+        <v>7580823.846515595</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>33.63787126633087</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>11.0622951856046</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -753,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>87.41444223540492</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.55870642658222</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>164.6905677185645</v>
       </c>
       <c r="U5" t="n">
-        <v>25.35996799970812</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -962,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1026,7 +1028,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830805</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>380.2896040565073</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>113.9803165303745</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>113.9802374910386</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>336.7484257707731</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1467,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>372.4089305243864</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.7433662146156</v>
       </c>
     </row>
     <row r="18">
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>116.876383545772</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2065,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>74.34149951545339</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>52.87272782695572</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>180.1156672543256</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.6432601718751</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2327,13 +2329,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>336.7484257707731</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>231.6234873393347</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2560,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>289.1043232126787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>332.777064249998</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>91.83955098127001</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>237.0560905371671</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>144.7633672382009</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2950,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>87.519456123834</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>66.03149870010124</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>350.5940477292698</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>336.7484257707731</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.76644673888953</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>1.836713037499476</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,19 +3268,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>123.7955276347259</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>312.5773721532807</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3430,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.55870642658222</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>361.4698460312805</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>81.22016485003856</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.836713037499476</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>147.8279795613426</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>357.5058497656024</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0457092032245</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.9005421603009</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>165.2599640362306</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>365.6774722162032</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>406.3351562371461</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>329.960654914342</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>121.3691205752644</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>3.777855937592407</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>213.6244219116074</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.9296003819453</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C2" t="n">
-        <v>432.7540988848759</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
@@ -4337,43 +4339,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.575851912381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>1903.6637861194</v>
       </c>
       <c r="V2" t="n">
-        <v>2023.541695780699</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="W2" t="n">
-        <v>2012.367660239684</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.915055172741</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1226.424346093342</v>
+        <v>1165.066267743519</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998569</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
         <v>2341.731461975244</v>
@@ -4449,10 +4451,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E4" t="n">
         <v>691.8442053644512</v>
@@ -4483,16 +4485,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4513,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>691.8442053644512</v>
       </c>
     </row>
     <row r="5">
@@ -4544,70 +4546,70 @@
         <v>440.488471598613</v>
       </c>
       <c r="C5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.294396270549</v>
       </c>
       <c r="U5" t="n">
-        <v>2340.032375784546</v>
+        <v>1943.541666705147</v>
       </c>
       <c r="V5" t="n">
-        <v>1997.925566488064</v>
+        <v>1601.434857408666</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.926531456352</v>
+        <v>1230.435822376953</v>
       </c>
       <c r="X5" t="n">
-        <v>1237.473926389409</v>
+        <v>840.9832173100099</v>
       </c>
       <c r="Y5" t="n">
         <v>840.9832173100099</v>
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>272.5108437565973</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565973</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>853.6512271106099</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="C8" t="n">
-        <v>460.4757256135405</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="D8" t="n">
-        <v>460.4757256135405</v>
+        <v>1296.447575514435</v>
       </c>
       <c r="E8" t="n">
-        <v>460.4757256135405</v>
+        <v>893.8640506309794</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>893.8640506309794</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="X8" t="n">
-        <v>853.6512271106099</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="Y8" t="n">
-        <v>853.6512271106099</v>
+        <v>1681.888704297767</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.636489659666</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2358.257858376064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4957,16 +4959,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.4445231227947</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>1719.881618012246</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>1719.881618012246</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>1348.882582980534</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>959.4299779135905</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y11" t="n">
-        <v>562.9392688341916</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.488471598613</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2340.032375784546</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.925566488064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>1626.926531456352</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.473926389409</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>840.9832173100099</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5431,16 +5433,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>579.3302549026299</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>185.6500870090788</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>1029.265125924707</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0615091076409</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="U19" t="n">
-        <v>596.6227173495417</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V19" t="n">
-        <v>330.643372170366</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>522.652680240431</v>
+        <v>1270.545665580632</v>
       </c>
       <c r="C20" t="n">
-        <v>447.5602564874478</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D20" t="n">
-        <v>62.11912770411553</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411553</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2312.241709292376</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2056.488979726974</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2056.488979726974</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2056.488979726974</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>1667.036374660031</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>1270.545665580632</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>760.7500664282172</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="T22" t="n">
-        <v>525.0310145964513</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="U22" t="n">
-        <v>239.5922228383523</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="V22" t="n">
-        <v>239.5922228383523</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5922228383523</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411553</v>
+        <v>766.8249752144843</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411553</v>
+        <v>543.7129140311276</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1984.296771771504</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C23" t="n">
-        <v>1591.121270274435</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D23" t="n">
-        <v>1205.680141491103</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E23" t="n">
-        <v>803.0966166076471</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2715.942227706244</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>2373.835418409762</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W23" t="n">
-        <v>2373.835418409762</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X23" t="n">
-        <v>2373.835418409762</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y23" t="n">
-        <v>2373.835418409762</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>1619.760294676424</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>1619.760294676424</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>1619.760294676424</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>1804.968313367725</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>1804.968313367725</v>
       </c>
       <c r="V25" t="n">
-        <v>802.6419131733114</v>
+        <v>1804.968313367725</v>
       </c>
       <c r="W25" t="n">
-        <v>519.3115111044891</v>
+        <v>1804.968313367725</v>
       </c>
       <c r="X25" t="n">
-        <v>285.2311888874722</v>
+        <v>1804.968313367725</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>1804.968313367725</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1965.153759365783</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C26" t="n">
-        <v>1571.978257868714</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D26" t="n">
-        <v>1279.953688967018</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3701640835627</v>
+        <v>383.4514188389153</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
         <v>406.2953261290054</v>
@@ -6239,37 +6241,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X26" t="n">
-        <v>2365.64850507718</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y26" t="n">
-        <v>2365.64850507718</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L27" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>170.4584634888457</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>170.4584634888457</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6412,22 +6414,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T28" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U28" t="n">
-        <v>100.8850758683575</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V28" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154361</v>
+        <v>338.7125173894001</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1563.175406327452</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="C29" t="n">
-        <v>1169.999904830382</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="D29" t="n">
-        <v>784.5587760470498</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="E29" t="n">
-        <v>784.5587760470498</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="G29" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O29" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2219.42288160425</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>1963.670152038849</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V29" t="n">
-        <v>1963.670152038849</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W29" t="n">
-        <v>1963.670152038849</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X29" t="n">
-        <v>1963.670152038849</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y29" t="n">
-        <v>1963.670152038849</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6536,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>272.5108437565964</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O30" t="n">
         <v>1960.027136360782</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.201482535628</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535628</v>
+        <v>778.5548747090853</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535628</v>
+        <v>622.9217616116</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535628</v>
+        <v>622.9217616116</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2080.209713319081</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.230368139906</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>1530.899966071083</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X31" t="n">
-        <v>1464.201482535628</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y31" t="n">
-        <v>1464.201482535628</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1634.089090713755</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C32" t="n">
-        <v>1634.089090713755</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W32" t="n">
-        <v>2023.541695780699</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="X32" t="n">
-        <v>1634.089090713755</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y32" t="n">
-        <v>1634.089090713755</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6773,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K33" t="n">
         <v>367.0521161637701</v>
@@ -6786,16 +6788,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>1436.116207068686</v>
+        <v>1374.52913135418</v>
       </c>
       <c r="N33" t="n">
-        <v>1436.116207068686</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>661.8044386367592</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C34" t="n">
-        <v>491.5993207027485</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D34" t="n">
-        <v>335.9662076052632</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="E34" t="n">
-        <v>180.4073954644657</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F34" t="n">
-        <v>180.4073954644657</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G34" t="n">
-        <v>180.4073954644657</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H34" t="n">
         <v>180.4073954644657</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6889,19 +6891,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>682.7806474639203</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W34" t="n">
-        <v>682.7806474639203</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X34" t="n">
-        <v>682.7806474639203</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y34" t="n">
-        <v>682.7806474639203</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.3589576113678</v>
+        <v>1575.701154298839</v>
       </c>
       <c r="C35" t="n">
-        <v>47.31297010154361</v>
+        <v>1182.52565280177</v>
       </c>
       <c r="D35" t="n">
-        <v>47.31297010154361</v>
+        <v>1182.52565280177</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>779.9421279183141</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>363.0476894482919</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L35" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M35" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N35" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V35" t="n">
-        <v>1729.796052500819</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W35" t="n">
-        <v>1358.797017469107</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X35" t="n">
-        <v>969.3444124021636</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y35" t="n">
-        <v>572.8537033227647</v>
+        <v>1976.195900010236</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5108437565964</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631986</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P36" t="n">
         <v>2365.648505077179</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7117,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U37" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V37" t="n">
-        <v>120.3445224472808</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>745.9439088256454</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>784.5587760470498</v>
+        <v>1969.157795997781</v>
       </c>
       <c r="C38" t="n">
-        <v>784.5587760470498</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D38" t="n">
-        <v>784.5587760470498</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E38" t="n">
-        <v>784.5587760470498</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F38" t="n">
         <v>784.5587760470498</v>
@@ -7166,58 +7168,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2283.607934521586</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V38" t="n">
-        <v>1941.501125225104</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.502090193392</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X38" t="n">
-        <v>1181.049485126449</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y38" t="n">
-        <v>784.5587760470498</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631986</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P39" t="n">
         <v>2365.648505077179</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7357,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>745.9439088256454</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>479.9645636464696</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W40" t="n">
-        <v>196.6341615776473</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154361</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>808.2114101877287</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C41" t="n">
-        <v>415.0359086906593</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="D41" t="n">
-        <v>415.0359086906593</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>666.9511603618604</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M41" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N41" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W41" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X41" t="n">
-        <v>1605.196864978524</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y41" t="n">
-        <v>1208.706155899126</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>1263.630217479597</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N42" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7533,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>589.1399514439072</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>303.7011596858081</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V43" t="n">
-        <v>303.7011596858081</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W43" t="n">
-        <v>303.7011596858081</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X43" t="n">
-        <v>303.7011596858081</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.7011596858081</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1255.969440891813</v>
+        <v>845.9168543968727</v>
       </c>
       <c r="C44" t="n">
-        <v>1255.969440891813</v>
+        <v>845.9168543968727</v>
       </c>
       <c r="D44" t="n">
-        <v>1255.969440891813</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E44" t="n">
-        <v>853.3859160083578</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F44" t="n">
-        <v>442.9463642536647</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>32.50681249897168</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>233.6796507833121</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>635.9514554580867</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N44" t="n">
-        <v>1038.223260132861</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O44" t="n">
-        <v>1440.495064807636</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>1440.495064807636</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>2032.354914254612</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.340624948584</v>
+        <v>1642.902309187668</v>
       </c>
       <c r="Y44" t="n">
-        <v>1625.340624948584</v>
+        <v>1246.41160010827</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.6075338279917</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>168.953303388084</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>168.953303388084</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>352.2459585611981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L45" t="n">
-        <v>754.5177632359728</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="M45" t="n">
-        <v>820.7970155990351</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N45" t="n">
-        <v>820.7970155990351</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>1223.06882027381</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.340624948584</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.745553660438</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1292.68241033908</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1070.142408710147</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>840.0251628434341</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>650.7180851934459</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4038682689531</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1217.020545073926</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="C46" t="n">
-        <v>1046.815427139916</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="D46" t="n">
-        <v>891.1823140424303</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="E46" t="n">
-        <v>891.1823140424303</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="F46" t="n">
-        <v>891.1823140424303</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="G46" t="n">
-        <v>891.1823140424303</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H46" t="n">
-        <v>887.3662979438521</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I46" t="n">
-        <v>754.27187258093</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U46" t="n">
-        <v>1625.340624948584</v>
+        <v>2149.86626072202</v>
       </c>
       <c r="V46" t="n">
-        <v>1625.340624948584</v>
+        <v>2149.86626072202</v>
       </c>
       <c r="W46" t="n">
-        <v>1625.340624948584</v>
+        <v>1866.535858653198</v>
       </c>
       <c r="X46" t="n">
-        <v>1625.340624948584</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="Y46" t="n">
-        <v>1402.228563765228</v>
+        <v>1632.455536436181</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>393.9156246749214</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,16 +8060,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>179.0738312465426</v>
+        <v>344.5555886567305</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8216,10 +8218,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8231,7 +8233,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,16 +8297,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>317.0695349849027</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>344.5555886567305</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,22 +8455,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>663.8430986641874</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.45345285401153</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,13 +8692,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>417.2510275517567</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8772,13 +8774,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>415.8062469585533</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8927,10 +8929,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8939,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9012,16 +9014,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>272.8385602943859</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>616.3484143223229</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9480,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577839</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9723,16 +9725,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9960,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>422.8212561536983</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10112,7 +10114,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10124,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10188,22 +10190,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720901</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>457.1386964627893</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,7 +10363,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>621.5900809302176</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
-        <v>385.1581020577837</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,10 +10588,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10601,7 +10603,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10665,22 +10667,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>440.196945759487</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10823,10 +10825,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10835,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>124.0799396297074</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>422.8212561536975</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11063,7 +11065,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>416.5368911778199</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11072,13 +11074,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11139,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>509.5709760063966</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11297,25 +11299,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>356.4530568863911</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>301.2346582324069</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8989936612425</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>159.335861809981</v>
+        <v>674.5394322581651</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -22562,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>219.5573310034165</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>356.2267494957908</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,10 +22710,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,10 +22755,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>179.803154886866</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -22835,10 +22837,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>56.57502869761296</v>
       </c>
       <c r="U5" t="n">
-        <v>227.8352342700393</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23021,25 +23023,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>28.74152390036954</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>271.5777624858992</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.2635089910601</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -23306,22 +23308,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>48.80965324550067</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>16.83481595771229</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23549,19 +23551,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>2.782435773989278</v>
       </c>
     </row>
     <row r="18">
@@ -23941,10 +23943,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>314.9022469666453</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>168.3928685892218</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24175,13 +24177,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>20.67225572495047</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>56.04115481195237</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.84653808240785</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,25 +24256,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>48.80965324550067</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>1.7383739741135</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>92.48239428282028</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>79.94842983532402</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24506,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>39.92393012802287</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24692,7 +24694,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>171.9750374197098</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>76.50222917797657</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,28 +24840,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>68.23321931532277</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>165.7080202947455</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>30.99266976622908</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24974,16 +24976,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>30.54061891062236</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.5894917654987</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>152.16651098189</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25154,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>265.4482188473728</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>96.4537558035961</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25208,19 +25210,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25318,22 +25320,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>100.4445175928073</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>208.1958612258543</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,16 +25393,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>27.77390045081819</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25445,16 +25447,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>171.9750374197088</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>152.16651098189</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25597,22 +25599,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>83.91153943350412</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>24.08086772989657</v>
       </c>
       <c r="E41" t="n">
-        <v>34.51198043139641</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25688,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25792,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>54.10268185908861</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25801,7 +25803,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>66.47955495861615</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.81232603807968</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>6.390337848175932</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>2.695971719730778</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25925,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>37.32838976705341</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.84485310781623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26035,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.1459095905285</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>68.95998192891062</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.4985328137</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655603.498532814</v>
+        <v>655603.4985328137</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655603.498532814</v>
+        <v>655603.4985328142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655603.498532814</v>
+        <v>655603.4985328137</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738619.6164655525</v>
+        <v>655603.4985328136</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738619.6164655525</v>
+        <v>655603.4985328135</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.4985328137</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.498532814</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.4985328137</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.498532814</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.4985328141</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528367.739892185</v>
+        <v>655603.4985328141</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>180687.3047541645</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180687.3047541645</v>
+      </c>
+      <c r="D2" t="n">
         <v>180687.3047541646</v>
-      </c>
-      <c r="C2" t="n">
-        <v>180687.3047541646</v>
-      </c>
-      <c r="D2" t="n">
-        <v>180687.3047541645</v>
       </c>
       <c r="E2" t="n">
         <v>180687.3047541645</v>
@@ -26326,13 +26328,13 @@
         <v>180687.3047541645</v>
       </c>
       <c r="G2" t="n">
+        <v>180687.3047541646</v>
+      </c>
+      <c r="H2" t="n">
         <v>180687.3047541645</v>
       </c>
-      <c r="H2" t="n">
-        <v>203556.2798509409</v>
-      </c>
       <c r="I2" t="n">
-        <v>203556.2798509409</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="J2" t="n">
         <v>180687.3047541645</v>
@@ -26341,10 +26343,10 @@
         <v>180687.3047541645</v>
       </c>
       <c r="L2" t="n">
+        <v>180687.3047541646</v>
+      </c>
+      <c r="M2" t="n">
         <v>180687.3047541645</v>
-      </c>
-      <c r="M2" t="n">
-        <v>180687.3047541646</v>
       </c>
       <c r="N2" t="n">
         <v>180687.3047541646</v>
@@ -26353,7 +26355,7 @@
         <v>180687.3047541645</v>
       </c>
       <c r="P2" t="n">
-        <v>145636.8655354873</v>
+        <v>180687.3047541646</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="C4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="G4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46245.1656902482</v>
+      </c>
+      <c r="I4" t="n">
         <v>46245.16569024821</v>
-      </c>
-      <c r="C4" t="n">
-        <v>46245.16569024821</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46245.16569024821</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46245.16569024821</v>
-      </c>
-      <c r="F4" t="n">
-        <v>46245.16569024821</v>
-      </c>
-      <c r="G4" t="n">
-        <v>46245.16569024822</v>
-      </c>
-      <c r="H4" t="n">
-        <v>52165.99257608331</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52165.99257608331</v>
       </c>
       <c r="J4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="K4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="L4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="M4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.16569024819</v>
       </c>
       <c r="N4" t="n">
-        <v>46245.16569024821</v>
+        <v>46245.1656902482</v>
       </c>
       <c r="O4" t="n">
         <v>46245.16569024821</v>
       </c>
       <c r="P4" t="n">
-        <v>37170.53151849088</v>
+        <v>46245.16569024821</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-133339.1242050017</v>
       </c>
       <c r="C6" t="n">
-        <v>64856.68178674323</v>
+        <v>64856.68178674317</v>
       </c>
       <c r="D6" t="n">
-        <v>64856.68178674314</v>
+        <v>64856.68178674328</v>
       </c>
       <c r="E6" t="n">
-        <v>98484.28178674314</v>
+        <v>98484.28178674319</v>
       </c>
       <c r="F6" t="n">
-        <v>98484.28178674314</v>
+        <v>98484.28178674322</v>
       </c>
       <c r="G6" t="n">
-        <v>98484.28178674317</v>
+        <v>98484.28178674325</v>
       </c>
       <c r="H6" t="n">
-        <v>54244.3180123257</v>
+        <v>98484.28178674322</v>
       </c>
       <c r="I6" t="n">
-        <v>104179.7502197298</v>
+        <v>98484.28178674323</v>
       </c>
       <c r="J6" t="n">
-        <v>-7830.873831768702</v>
+        <v>-56255.15257886017</v>
       </c>
       <c r="K6" t="n">
-        <v>98484.2817867432</v>
+        <v>98484.28178674322</v>
       </c>
       <c r="L6" t="n">
-        <v>98484.28178674314</v>
+        <v>98484.28178674325</v>
       </c>
       <c r="M6" t="n">
-        <v>98484.28178674326</v>
+        <v>98484.28178674322</v>
       </c>
       <c r="N6" t="n">
-        <v>98484.2817867432</v>
+        <v>98484.28178674325</v>
       </c>
       <c r="O6" t="n">
-        <v>98484.2817867432</v>
+        <v>98484.28178674322</v>
       </c>
       <c r="P6" t="n">
-        <v>83761.15651777794</v>
+        <v>98484.28178674323</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34707,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>244.7971333371374</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>93.70171839237591</v>
+        <v>259.1834758025638</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34951,7 +34953,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>227.4725996515694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>259.1834758025638</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>514.1180470664602</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.465299698097541</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>330.4341341043866</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35647,10 +35649,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>180.451438245074</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>463.1002445918313</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>292.470543168895</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>330.4341341043864</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36844,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832013</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>303.8905267322976</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,7 +37083,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>529.2029588809057</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
-        <v>292.4705431688948</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37321,7 +37323,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705981</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37555,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>34.48300429637406</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>330.4341341043856</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>263.2887214473282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37792,13 +37794,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>417.1838539570846</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>203.2048871558994</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>151.5096066346797</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>406.3351562371461</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>66.94873976066906</v>
+        <v>582.1523102088532</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465797.9705673484</v>
+        <v>460089.8147594622</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.05046239</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330059</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7580823.846515595</v>
+        <v>7580823.846515599</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>349.7480363891209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>33.63787126633087</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -755,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540492</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.83649893233097</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>53.55870642658222</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>303.7462930114522</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>164.6905677185645</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -958,13 +958,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1028,7 +1028,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830805</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>29.95616667213459</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>380.2896040565073</v>
+        <v>77.41498119987978</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1305,16 +1305,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>76.74086563202131</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.50665500863926</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>336.7484257707731</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>372.4089305243864</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>353.7503951212385</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -1909,10 +1909,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>216.3004615321871</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.7433662146156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>116.876383545772</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>305.2031812018381</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>52.87272782695572</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>180.1156672543256</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>119.7217000462451</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>336.7484257707731</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>43.66380379007094</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>231.6234873393347</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>332.777064249998</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>85.76651412076612</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>91.83955098127001</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>237.0560905371671</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>47.17485079482538</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>87.519456123834</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>115.0763613754839</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>336.7484257707731</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.836713037499476</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>43.66380379007094</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>312.5773721532807</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>19.73044033344715</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>53.55870642658222</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -3444,10 +3444,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>195.3036574157872</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>361.4698460312805</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>332.7770642499989</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.836713037499476</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>357.5058497656024</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>300.2915214881656</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>194.6126785212293</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>165.2599640362306</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>329.960654914342</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>312.5773721532817</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
-        <v>213.6244219116074</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764.5715220321224</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C2" t="n">
-        <v>371.396020535053</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D2" t="n">
-        <v>371.396020535053</v>
+        <v>400.5938149390395</v>
       </c>
       <c r="E2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1832.615452804709</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863168</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1903.6637861194</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>1561.556976822918</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>1561.556976822918</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>1561.556976822918</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y2" t="n">
-        <v>1165.066267743519</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>952.550121170372</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.8442053644512</v>
+        <v>228.5331845398061</v>
       </c>
       <c r="C4" t="n">
-        <v>691.8442053644512</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D4" t="n">
-        <v>691.8442053644512</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4518,22 +4518,22 @@
         <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>691.8442053644512</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U4" t="n">
-        <v>691.8442053644512</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V4" t="n">
-        <v>691.8442053644512</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W4" t="n">
-        <v>691.8442053644512</v>
+        <v>462.613506756823</v>
       </c>
       <c r="X4" t="n">
-        <v>691.8442053644512</v>
+        <v>228.5331845398061</v>
       </c>
       <c r="Y4" t="n">
-        <v>691.8442053644512</v>
+        <v>228.5331845398061</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.488471598613</v>
+        <v>747.3029089839183</v>
       </c>
       <c r="C5" t="n">
-        <v>47.31297010154359</v>
+        <v>354.1274074868489</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415867</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.421412053329</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2199.294396270549</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U5" t="n">
-        <v>1943.541666705147</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V5" t="n">
-        <v>1601.434857408666</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W5" t="n">
-        <v>1230.435822376953</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="X5" t="n">
-        <v>840.9832173100099</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.9832173100099</v>
+        <v>1147.797654695315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>952.550121170372</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>530.4771359200668</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>715.685154611368</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>715.685154611368</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>715.685154611368</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>715.685154611368</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>715.685154611368</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>715.685154611368</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.888704297767</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.888704297767</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="D8" t="n">
-        <v>1296.447575514435</v>
+        <v>944.9878841619707</v>
       </c>
       <c r="E8" t="n">
-        <v>893.8640506309794</v>
+        <v>542.4043592785151</v>
       </c>
       <c r="F8" t="n">
-        <v>893.8640506309794</v>
+        <v>125.5099208084929</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297767</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297767</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297767</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.888704297767</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.888704297767</v>
+        <v>1330.429012945303</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.3129701015436</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565968</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631988</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>763.5519739517948</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>593.346856017784</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>437.7137429202988</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>282.1549307795013</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>124.8289959924742</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.513125265401</v>
+        <v>952.3918739011349</v>
       </c>
       <c r="C11" t="n">
-        <v>835.3376237683314</v>
+        <v>952.3918739011349</v>
       </c>
       <c r="D11" t="n">
-        <v>449.8964949849991</v>
+        <v>952.3918739011349</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>952.3918739011349</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>535.4974354311126</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>318.7636682303378</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>318.7636682303378</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749184</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.57585191238</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X11" t="n">
-        <v>2025.498580056196</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y11" t="n">
-        <v>1629.007870976798</v>
+        <v>952.3918739011349</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="C14" t="n">
-        <v>1989.47786818386</v>
+        <v>1544.4659323661</v>
       </c>
       <c r="D14" t="n">
-        <v>1604.036739400527</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.453214517072</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F14" t="n">
         <v>784.5587760470498</v>
@@ -5272,58 +5272,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M14" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185.6500870090788</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C17" t="n">
-        <v>185.6500870090788</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D17" t="n">
-        <v>185.6500870090788</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E17" t="n">
-        <v>185.6500870090788</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F17" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G17" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415867</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.421412053329</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>1681.888704297767</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V17" t="n">
-        <v>1339.781895001286</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W17" t="n">
-        <v>968.7828599695731</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X17" t="n">
-        <v>579.3302549026299</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="Y17" t="n">
-        <v>185.6500870090788</v>
+        <v>788.2904590050753</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>830.7030395665587</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>830.7030395665587</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>564.7236943873829</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1270.545665580632</v>
+        <v>1096.576500623094</v>
       </c>
       <c r="C20" t="n">
-        <v>877.3701640835627</v>
+        <v>1096.576500623094</v>
       </c>
       <c r="D20" t="n">
-        <v>877.3701640835627</v>
+        <v>1096.576500623094</v>
       </c>
       <c r="E20" t="n">
-        <v>877.3701640835627</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F20" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.57585191238</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.615452804709</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936231</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2312.241709292376</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U20" t="n">
-        <v>2056.488979726974</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V20" t="n">
-        <v>2056.488979726974</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W20" t="n">
-        <v>2056.488979726974</v>
+        <v>1486.029105690037</v>
       </c>
       <c r="X20" t="n">
-        <v>1667.036374660031</v>
+        <v>1096.576500623094</v>
       </c>
       <c r="Y20" t="n">
-        <v>1270.545665580632</v>
+        <v>1096.576500623094</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1436.116207068685</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5937,25 +5937,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>766.8249752144843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>766.8249752144843</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>766.8249752144843</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>766.8249752144843</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>766.8249752144843</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>766.8249752144843</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>543.7129140311276</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1228.513125265401</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="C23" t="n">
-        <v>835.3376237683314</v>
+        <v>956.2686339160537</v>
       </c>
       <c r="D23" t="n">
-        <v>449.8964949849991</v>
+        <v>570.8275051327214</v>
       </c>
       <c r="E23" t="n">
-        <v>47.31297010154359</v>
+        <v>168.2439802492659</v>
       </c>
       <c r="F23" t="n">
-        <v>47.31297010154359</v>
+        <v>168.2439802492659</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.648505077179</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.648505077179</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X23" t="n">
-        <v>2025.498580056196</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="Y23" t="n">
-        <v>1629.007870976798</v>
+        <v>1349.444135413123</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1619.760294676424</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C25" t="n">
-        <v>1619.760294676424</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="D25" t="n">
-        <v>1619.760294676424</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.201482535627</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535627</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535627</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2038.931431892306</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>1804.968313367725</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>1804.968313367725</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V25" t="n">
-        <v>1804.968313367725</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W25" t="n">
-        <v>1804.968313367725</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X25" t="n">
-        <v>1804.968313367725</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y25" t="n">
-        <v>1804.968313367725</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1179.21044521944</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="C26" t="n">
-        <v>786.0349437223708</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D26" t="n">
-        <v>786.0349437223708</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E26" t="n">
-        <v>383.4514188389153</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2279.015662530952</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.648505077179</v>
+        <v>2023.262932965551</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.648505077179</v>
+        <v>2023.262932965551</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.648505077179</v>
+        <v>1652.263897933838</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.195900010236</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="Y26" t="n">
-        <v>1579.705190930837</v>
+        <v>1262.811292866895</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>170.4584634888457</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>170.4584634888457</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6408,28 +6408,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>622.0429194582225</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>622.0429194582225</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V28" t="n">
-        <v>622.0429194582225</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>338.7125173894001</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>610.8466170372419</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C29" t="n">
-        <v>610.8466170372419</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D29" t="n">
-        <v>610.8466170372419</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E29" t="n">
-        <v>610.8466170372419</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F29" t="n">
-        <v>610.8466170372419</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G29" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>851.7967205028082</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M29" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>2317.997140637963</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.895775511778</v>
+        <v>2317.997140637963</v>
       </c>
       <c r="V29" t="n">
-        <v>1767.788966215297</v>
+        <v>2317.997140637963</v>
       </c>
       <c r="W29" t="n">
-        <v>1396.789931183584</v>
+        <v>1946.99810560625</v>
       </c>
       <c r="X29" t="n">
-        <v>1007.337326116641</v>
+        <v>1946.99810560625</v>
       </c>
       <c r="Y29" t="n">
-        <v>610.8466170372419</v>
+        <v>1550.507396526852</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K30" t="n">
-        <v>480.1670983834974</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="L30" t="n">
-        <v>963.7331842818107</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M30" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N30" t="n">
-        <v>1549.231189288413</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
         <v>1960.027136360782</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>778.5548747090853</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>622.9217616116</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>622.9217616116</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6654,19 +6654,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1228.513125265401</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="C32" t="n">
-        <v>835.3376237683314</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D32" t="n">
-        <v>449.8964949849991</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>851.7967205028082</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1397.797620547389</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1925.608904184851</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W32" t="n">
-        <v>2025.498580056196</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X32" t="n">
-        <v>2025.498580056196</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y32" t="n">
-        <v>1629.007870976798</v>
+        <v>873.0758981825103</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I33" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
         <v>367.0521161637701</v>
@@ -6788,43 +6788,43 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>1374.52913135418</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N33" t="n">
-        <v>1960.027136360782</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X33" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>663.3212008849971</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="C34" t="n">
-        <v>663.3212008849971</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="D34" t="n">
-        <v>663.3212008849971</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="E34" t="n">
-        <v>661.4659351905532</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F34" t="n">
-        <v>504.1400004035262</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G34" t="n">
-        <v>335.8859465029717</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H34" t="n">
         <v>180.4073954644657</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6897,13 +6897,13 @@
         <v>663.3212008849971</v>
       </c>
       <c r="W34" t="n">
-        <v>663.3212008849971</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X34" t="n">
-        <v>663.3212008849971</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3212008849971</v>
+        <v>335.8859465029718</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1575.701154298839</v>
+        <v>1177.734277544119</v>
       </c>
       <c r="C35" t="n">
-        <v>1182.52565280177</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D35" t="n">
-        <v>1182.52565280177</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E35" t="n">
-        <v>779.9421279183141</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F35" t="n">
-        <v>363.0476894482919</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O35" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.648505077179</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.648505077179</v>
+        <v>2345.718767366628</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.648505077179</v>
+        <v>1974.719732334915</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.195900010236</v>
+        <v>1974.719732334915</v>
       </c>
       <c r="Y35" t="n">
-        <v>1976.195900010236</v>
+        <v>1578.229023255516</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.116207068685</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N36" t="n">
-        <v>2021.614212075287</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O36" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>745.9439088256454</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="C37" t="n">
-        <v>745.9439088256454</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="D37" t="n">
-        <v>745.9439088256454</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="E37" t="n">
-        <v>691.8442053644512</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F37" t="n">
-        <v>534.5182705774242</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G37" t="n">
-        <v>366.2642166768698</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H37" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7122,25 +7122,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>745.9439088256454</v>
+        <v>751.4835710109878</v>
       </c>
       <c r="U37" t="n">
-        <v>745.9439088256454</v>
+        <v>751.4835710109878</v>
       </c>
       <c r="V37" t="n">
-        <v>745.9439088256454</v>
+        <v>751.4835710109878</v>
       </c>
       <c r="W37" t="n">
-        <v>745.9439088256454</v>
+        <v>751.4835710109878</v>
       </c>
       <c r="X37" t="n">
-        <v>745.9439088256454</v>
+        <v>751.4835710109878</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.9439088256454</v>
+        <v>528.3715098276311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1969.157795997781</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C38" t="n">
-        <v>1604.036739400527</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.036739400527</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.453214517072</v>
+        <v>383.4514188389163</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154359</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L38" t="n">
-        <v>318.7636682303378</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749184</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.648505077179</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y38" t="n">
-        <v>1969.157795997781</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>194.5661265746813</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>678.1322124729945</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M39" t="n">
-        <v>1263.630217479596</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N39" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C40" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D40" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E40" t="n">
-        <v>661.4659351905532</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F40" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>335.8859465029717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7368,16 +7368,16 @@
         <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>663.3212008849971</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W40" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1965.153759365782</v>
+        <v>1146.396765662034</v>
       </c>
       <c r="C41" t="n">
-        <v>1965.153759365782</v>
+        <v>753.2212641649644</v>
       </c>
       <c r="D41" t="n">
-        <v>1604.036739400527</v>
+        <v>753.2212641649644</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.453214517072</v>
+        <v>350.6377392815089</v>
       </c>
       <c r="F41" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.648505077179</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="Y41" t="n">
-        <v>2365.648505077179</v>
+        <v>1546.891511373431</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631988</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.648505077179</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7602,19 +7602,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>948.7599926430961</v>
+        <v>752.1815294903392</v>
       </c>
       <c r="V43" t="n">
-        <v>682.7806474639203</v>
+        <v>486.2021843111635</v>
       </c>
       <c r="W43" t="n">
-        <v>399.450245395098</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="X43" t="n">
-        <v>232.5209887928449</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="Y43" t="n">
-        <v>232.5209887928449</v>
+        <v>202.8717822423411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>845.9168543968727</v>
+        <v>1259.966434952091</v>
       </c>
       <c r="C44" t="n">
-        <v>845.9168543968727</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D44" t="n">
-        <v>460.4757256135405</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E44" t="n">
-        <v>460.4757256135405</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
         <v>406.2953261290054</v>
@@ -7657,43 +7657,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.421412053329</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W44" t="n">
-        <v>2032.354914254612</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X44" t="n">
-        <v>1642.902309187668</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y44" t="n">
-        <v>1246.41160010827</v>
+        <v>1660.461180663488</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>47.31297010154359</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>623.6437572083082</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N45" t="n">
         <v>1209.14176221491</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.648505077179</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U46" t="n">
-        <v>2149.86626072202</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V46" t="n">
-        <v>2149.86626072202</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>1866.535858653198</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>393.9156246749214</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>344.5555886567305</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>344.5555886567305</v>
+        <v>388.2984090135469</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,19 +8534,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>614.575071735073</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8692,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>417.2510275517567</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>470.4637632346382</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>149.8974233269835</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N18" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>616.3484143223229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
         <v>149.7250515977273</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>149.8974233269835</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>388.298409013546</v>
       </c>
       <c r="O21" t="n">
-        <v>385.1581020577839</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>149.8974233269835</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>422.8212561536977</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9877,10 +9877,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9889,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,16 +9956,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>422.8212561536977</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>651.5514946987026</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10129,10 +10129,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,22 +10190,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>317.0695349849018</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>507.6329599720901</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>457.1386964627893</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10363,7 +10363,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>621.5900809302176</v>
+        <v>509.5709760063966</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10600,13 +10600,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>440.196945759487</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10825,10 +10825,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L38" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10840,10 +10840,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,25 +10904,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>124.0799396297074</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11074,7 +11074,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234615</v>
+        <v>230.2980308590258</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,13 +11305,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>301.2346582324069</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>674.5394322581651</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22552,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>48.80965324549999</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22564,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>219.5573310034165</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,7 +22707,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>155.6665678223397</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -22716,19 +22716,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>179.803154886866</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -22767,10 +22767,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>77.84042448404671</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22837,7 +22837,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>56.57502869761296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>203.4056946413136</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>28.74152390036954</v>
+        <v>331.6161467569971</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,16 +23193,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.8306477295276</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>383.5244729482376</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.80965324550067</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,16 +23497,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>16.83481595771229</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>27.83632237426042</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23743,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>169.2576174840866</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.782435773989278</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23943,10 +23943,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>116.4854777676762</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,22 +23971,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>93.35450843278278</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24019,25 +24019,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>168.3928685892218</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24177,25 +24177,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>20.67225572495047</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>289.3094279106318</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24262,19 +24262,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>48.80965324550067</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,19 +24372,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>122.907709571478</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>1.7383739741135</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>79.94842983532402</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24496,22 +24496,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>135.4990822954114</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24615,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>39.92393012802287</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24694,7 +24694,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>171.9750374197098</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>174.0907456213521</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>68.23321931532277</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>274.1673851066148</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -24934,7 +24934,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>30.54061891062236</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>152.16651098189</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>188.0757152047758</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25162,16 +25162,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>96.4537558035961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25207,7 +25207,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>201.5351560827303</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>100.4445175928073</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>38.058203897661</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25380,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>27.77390045081819</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>79.94842983532311</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>152.16651098189</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>89.72117673905598</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>24.08086772989657</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>112.4339725971564</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25678,13 +25678,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25794,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25842,7 +25842,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>87.97172531928879</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>66.47955495861615</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25927,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>37.32838976705341</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>79.94842983532317</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26076,19 +26076,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
-        <v>68.95998192891062</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655603.4985328137</v>
+        <v>655603.498532814</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655603.4985328137</v>
+        <v>655603.4985328142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655603.4985328142</v>
+        <v>655603.4985328144</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655603.4985328136</v>
+        <v>655603.4985328144</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655603.4985328135</v>
+        <v>655603.4985328141</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655603.4985328137</v>
+        <v>655603.4985328144</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655603.498532814</v>
+        <v>655603.4985328142</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655603.498532814</v>
+        <v>655603.4985328141</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655603.4985328137</v>
+        <v>655603.4985328141</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655603.498532814</v>
+        <v>655603.4985328142</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655603.4985328141</v>
+        <v>655603.4985328144</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>180687.3047541645</v>
       </c>
       <c r="C2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="D2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541647</v>
       </c>
       <c r="E2" t="n">
         <v>180687.3047541645</v>
@@ -26328,7 +26328,7 @@
         <v>180687.3047541645</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="H2" t="n">
         <v>180687.3047541645</v>
@@ -26337,22 +26337,22 @@
         <v>180687.3047541646</v>
       </c>
       <c r="J2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="K2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="L2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="M2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="N2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="O2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="P2" t="n">
         <v>180687.3047541646</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="C4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024822</v>
       </c>
       <c r="D4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="E4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="F4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="G4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="H4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="I4" t="n">
         <v>46245.16569024821</v>
@@ -26444,16 +26444,16 @@
         <v>46245.16569024821</v>
       </c>
       <c r="K4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="L4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024822</v>
       </c>
       <c r="M4" t="n">
-        <v>46245.16569024819</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="N4" t="n">
-        <v>46245.1656902482</v>
+        <v>46245.16569024821</v>
       </c>
       <c r="O4" t="n">
         <v>46245.16569024821</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133339.1242050017</v>
+        <v>-134013.1503312219</v>
       </c>
       <c r="C6" t="n">
-        <v>64856.68178674317</v>
+        <v>64182.65566052322</v>
       </c>
       <c r="D6" t="n">
-        <v>64856.68178674328</v>
+        <v>64182.65566052328</v>
       </c>
       <c r="E6" t="n">
-        <v>98484.28178674319</v>
+        <v>97810.25566052317</v>
       </c>
       <c r="F6" t="n">
-        <v>98484.28178674322</v>
+        <v>97810.25566052311</v>
       </c>
       <c r="G6" t="n">
-        <v>98484.28178674325</v>
+        <v>97810.25566052311</v>
       </c>
       <c r="H6" t="n">
-        <v>98484.28178674322</v>
+        <v>97810.25566052317</v>
       </c>
       <c r="I6" t="n">
-        <v>98484.28178674323</v>
+        <v>97810.25566052317</v>
       </c>
       <c r="J6" t="n">
-        <v>-56255.15257886017</v>
+        <v>-56929.17870508025</v>
       </c>
       <c r="K6" t="n">
-        <v>98484.28178674322</v>
+        <v>97810.25566052317</v>
       </c>
       <c r="L6" t="n">
-        <v>98484.28178674325</v>
+        <v>97810.25566052322</v>
       </c>
       <c r="M6" t="n">
-        <v>98484.28178674322</v>
+        <v>97810.25566052322</v>
       </c>
       <c r="N6" t="n">
-        <v>98484.28178674325</v>
+        <v>97810.25566052317</v>
       </c>
       <c r="O6" t="n">
-        <v>98484.28178674322</v>
+        <v>97810.25566052317</v>
       </c>
       <c r="P6" t="n">
-        <v>98484.28178674323</v>
+        <v>97810.25566052322</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>244.7971333371374</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>259.1834758025638</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>259.1834758025638</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>529.2029588809064</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>274.1926243725193</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>5.39872490859134</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N18" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>463.1002445918313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>5.39872490859134</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="O21" t="n">
-        <v>292.470543168895</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36366,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5.39872490859134</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>330.4341341043858</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36609,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>330.4341341043858</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36849,10 +36849,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>227.4725996515685</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>414.9454010832013</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>303.8905267322976</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37083,7 +37083,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>529.2029588809057</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37320,13 +37320,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>347.5093868705981</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L38" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37560,10 +37560,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>34.48300429637406</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37794,7 +37794,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>151.5096066346797</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>582.1523102088532</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
